--- a/BOM1.xlsx
+++ b/BOM1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\College\Masters\0EDM\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\WEDMController\WEDMController-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Inductor</t>
   </si>
@@ -96,13 +97,82 @@
   </si>
   <si>
     <t xml:space="preserve">WE-HCF 7443630550 </t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>DC Link Voltage</t>
+  </si>
+  <si>
+    <t>Output Current</t>
+  </si>
+  <si>
+    <t>Switching Frequency</t>
+  </si>
+  <si>
+    <t>120 V</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>50 KHz</t>
+  </si>
+  <si>
+    <t>Output Voltage</t>
+  </si>
+  <si>
+    <t>120V</t>
+  </si>
+  <si>
+    <t>80 V</t>
+  </si>
+  <si>
+    <t>Availibility</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Inductors</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>250 MHz</t>
+  </si>
+  <si>
+    <t>ds1104</t>
+  </si>
+  <si>
+    <t>https://www.dspace.com/shared/data/pdf/2017/dSPACE_DS1104_Catalog2017_E.pdf</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Curent</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Link/Other Info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +188,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF575756"/>
+      <name val="FrutigerLTPro-LightCn"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -252,12 +327,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,12 +363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -292,9 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,8 +389,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -595,10 +690,10 @@
   <dimension ref="B2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -608,22 +703,22 @@
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I2" s="18" t="s">
+    <row r="2" spans="2:16">
+      <c r="I2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -633,17 +728,17 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="O3" t="s">
@@ -653,36 +748,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:16">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="7">
@@ -695,30 +790,30 @@
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>100</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="O5">
         <v>613</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+    <row r="6" spans="2:16">
+      <c r="B6" s="21"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -730,7 +825,7 @@
       <c r="K6" s="1">
         <v>30</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="N6" t="s">
@@ -739,14 +834,14 @@
       <c r="O6">
         <v>325</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+    <row r="7" spans="2:16">
+      <c r="B7" s="21"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="7">
@@ -763,10 +858,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+    <row r="8" spans="2:16">
+      <c r="B8" s="21"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
@@ -775,10 +870,10 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+    <row r="9" spans="2:16">
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="7">
@@ -795,10 +890,10 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+    <row r="10" spans="2:16">
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
@@ -807,10 +902,10 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+    <row r="11" spans="2:16">
+      <c r="B11" s="21"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -819,12 +914,12 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="7">
@@ -841,10 +936,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -853,10 +948,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -865,12 +960,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:16">
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="7"/>
@@ -883,10 +978,10 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+    <row r="16" spans="2:16">
+      <c r="B16" s="21"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -895,10 +990,10 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+    <row r="17" spans="2:11">
+      <c r="B17" s="21"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="7">
@@ -915,10 +1010,10 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+    <row r="18" spans="2:11">
+      <c r="B18" s="21"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -927,10 +1022,10 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+    <row r="19" spans="2:11">
+      <c r="B19" s="21"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="7">
@@ -947,10 +1042,10 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+    <row r="20" spans="2:11">
+      <c r="B20" s="21"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
@@ -959,13 +1054,13 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+    <row r="21" spans="2:11">
+      <c r="B21" s="22"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -984,4 +1079,155 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>5.0909000000000002E-4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>4.3636E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3.1250000000000003E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BOM1.xlsx
+++ b/BOM1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\WEDMController\WEDMController-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>Inductor</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Availibility</t>
   </si>
   <si>
-    <t>Switches</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -166,6 +163,150 @@
   </si>
   <si>
     <t>Link/Other Info</t>
+  </si>
+  <si>
+    <t>MOSFETs</t>
+  </si>
+  <si>
+    <t>IPB407N30N</t>
+  </si>
+  <si>
+    <t>300 V</t>
+  </si>
+  <si>
+    <t>44A</t>
+  </si>
+  <si>
+    <t>Rds On</t>
+  </si>
+  <si>
+    <t>40.7 mOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1MHz </t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IPB407N30N-DS-v02_00-EN.pdf?fileId=5546d4624d6fc3d5014d760faf575474</t>
+  </si>
+  <si>
+    <t>IRFP4137PbF</t>
+  </si>
+  <si>
+    <t>38A</t>
+  </si>
+  <si>
+    <t>69 mOhm</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/irfp4137pbf.pdf?fileId=5546d462533600a401535629208b2002</t>
+  </si>
+  <si>
+    <t>AUIRFP4409</t>
+  </si>
+  <si>
+    <t>38 A</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/auirfp4409.pdf?fileId=5546d462533600a4015355b1d03c1456</t>
+  </si>
+  <si>
+    <t>IPP410N30N</t>
+  </si>
+  <si>
+    <t>41 mOhm</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IPP410N30N-DS-v02_00-EN.pdf?fileId=5546d4624b0b249c014b2b1f572e433b</t>
+  </si>
+  <si>
+    <t>IRFP4868PbF</t>
+  </si>
+  <si>
+    <t>70 A</t>
+  </si>
+  <si>
+    <t>32 mOhm</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/irfp4868pbf.pdf?fileId=5546d462533600a40153562c9c822023</t>
+  </si>
+  <si>
+    <t>IRFB4137PbF</t>
+  </si>
+  <si>
+    <t>300V</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/irfb4137pbf.pdf?fileId=5546d462533600a401535615cb511e13</t>
+  </si>
+  <si>
+    <t>IDB30E60</t>
+  </si>
+  <si>
+    <t>600 V</t>
+  </si>
+  <si>
+    <t>30 A</t>
+  </si>
+  <si>
+    <t>Vf drop</t>
+  </si>
+  <si>
+    <t>1.5V</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDB30E60-DS-v02_04-en.pdf?fileId=db3a304412b407950112b438d1a06bac</t>
+  </si>
+  <si>
+    <t>IDP30E60</t>
+  </si>
+  <si>
+    <t>600V</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDP30E60-DS-v02_05-en.pdf?fileId=db3a30432313ff5e01237a4486497bd5</t>
+  </si>
+  <si>
+    <t>IDW50E60</t>
+  </si>
+  <si>
+    <t>50 A</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDW50E60-DS-v02_02-en.pdf?fileId=db3a30433cd75ebf013cf1ddd0fb255a</t>
+  </si>
+  <si>
+    <t>2 V</t>
+  </si>
+  <si>
+    <t>IDW30E60</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDW30E60_1-DS-v01_01-en.pdf?fileId=db3a3043338c8ac80133abdec5bc2fe3</t>
+  </si>
+  <si>
+    <t>IDW75E60</t>
+  </si>
+  <si>
+    <t>75 A</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDW75E60-DS-v02_02-en.pdf?fileId=db3a304412b407950112b438de4f6bbe</t>
+  </si>
+  <si>
+    <t>1.65 V</t>
+  </si>
+  <si>
+    <t>IDW100E60</t>
+  </si>
+  <si>
+    <t>100 A</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/dgdl/Infineon-IDW100E60-DS-v02_03-en.pdf?fileId=db3a304412b407950112b438da286bba</t>
   </si>
 </sst>
 </file>
@@ -389,6 +530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -400,11 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -704,15 +845,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:16">
@@ -773,7 +914,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6"/>
@@ -811,7 +952,7 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6"/>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
@@ -839,7 +980,7 @@
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
         <v>1</v>
@@ -859,7 +1000,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6"/>
       <c r="D8" s="11"/>
       <c r="E8" s="7"/>
@@ -871,7 +1012,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="6"/>
       <c r="D9" s="11" t="s">
         <v>2</v>
@@ -891,7 +1032,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="6"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7"/>
@@ -903,7 +1044,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="6"/>
       <c r="D11" s="11"/>
       <c r="E11" s="7"/>
@@ -961,7 +1102,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6"/>
@@ -979,7 +1120,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="21"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6"/>
       <c r="D16" s="11"/>
       <c r="E16" s="7"/>
@@ -991,7 +1132,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="6"/>
       <c r="D17" s="11" t="s">
         <v>2</v>
@@ -1011,7 +1152,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="21"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="6"/>
       <c r="D18" s="11"/>
       <c r="E18" s="7"/>
@@ -1023,7 +1164,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="21"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="6"/>
       <c r="D19" s="11" t="s">
         <v>1</v>
@@ -1043,7 +1184,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="6"/>
       <c r="D20" s="11"/>
       <c r="E20" s="7"/>
@@ -1055,7 +1196,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="9"/>
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
@@ -1083,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1094,9 +1235,15 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="108.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1115,64 +1262,109 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>5.0909000000000002E-4</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1182,48 +1374,221 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>4.3636E-4</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>3.1250000000000003E-7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="E11" t="s">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="E29" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/BOM1.xlsx
+++ b/BOM1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshay\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\WEDMController\WEDMController-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Inductor</t>
   </si>
@@ -307,13 +307,31 @@
   </si>
   <si>
     <t>https://www.infineon.com/dgdl/Infineon-IDW100E60-DS-v02_03-en.pdf?fileId=db3a304412b407950112b438da286bba</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1951846.pdf?_ga=2.222166936.1436169840.1507193200-23033445.1507193200&amp;_gac=1.183516628.1507193200.Cj0KCQjwsNfOBRCWARIsAGITapbL9RqIytDek2Zh6U1-a6z3dpDithZHO70p54jTKxDD-yPdzNwJVKsaAiIQEALw_wcB</t>
+  </si>
+  <si>
+    <t>B32361A2107J050</t>
+  </si>
+  <si>
+    <t>For Voltage Source</t>
+  </si>
+  <si>
+    <t>206PHC250K</t>
+  </si>
+  <si>
+    <t>http://www.farnell.com/datasheets/1910921.pdf?_ga=2.8296754.1436169840.1507193200-23033445.1507193200&amp;_gac=1.27724494.1507193200.Cj0KCQjwsNfOBRCWARIsAGITapbL9RqIytDek2Zh6U1-a6z3dpDithZHO70p54jTKxDD-yPdzNwJVKsaAiIQEALw_wcB</t>
+  </si>
+  <si>
+    <t>For Qd snubber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,9 +348,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF575756"/>
-      <name val="FrutigerLTPro-LightCn"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -463,21 +483,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -532,9 +537,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -547,6 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,7 +837,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -844,19 +847,19 @@
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="I2" s="26" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="10"/>
@@ -889,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="11"/>
@@ -913,8 +916,8 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6"/>
@@ -951,8 +954,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="24"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
       <c r="C6" s="6"/>
       <c r="D6" s="11"/>
       <c r="E6" s="7"/>
@@ -979,8 +982,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="24"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
       <c r="D7" s="11" t="s">
         <v>1</v>
@@ -999,8 +1002,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="24"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
       <c r="C8" s="6"/>
       <c r="D8" s="11"/>
       <c r="E8" s="7"/>
@@ -1011,8 +1014,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="24"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9" s="11" t="s">
         <v>2</v>
@@ -1031,8 +1034,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="24"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
       <c r="C10" s="6"/>
       <c r="D10" s="11"/>
       <c r="E10" s="7"/>
@@ -1043,8 +1046,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="24"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
       <c r="C11" s="6"/>
       <c r="D11" s="11"/>
       <c r="E11" s="7"/>
@@ -1055,7 +1058,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1080,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="11"/>
@@ -1089,7 +1092,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
@@ -1101,8 +1104,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6"/>
@@ -1119,8 +1122,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="24"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="11"/>
       <c r="E16" s="7"/>
@@ -1131,8 +1134,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="24"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="11" t="s">
         <v>2</v>
@@ -1151,8 +1154,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="24"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="11"/>
       <c r="E18" s="7"/>
@@ -1163,8 +1166,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="24"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="11" t="s">
         <v>1</v>
@@ -1183,8 +1186,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="24"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
       <c r="D20" s="11"/>
       <c r="E20" s="7"/>
@@ -1195,8 +1198,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="25"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
       <c r="C21" s="9"/>
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
@@ -1224,26 +1227,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="108.140625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>77</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>81</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>85</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>87</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>91</v>
       </c>
@@ -1567,29 +1574,52 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="5:12">
-      <c r="E25" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="5:12">
-      <c r="E27" t="s">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="5:12">
-      <c r="E29" t="s">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
